--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\iCloudDrive\CSCI 306\Clue Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\iCloudDrive\CSCI 306\Clue Project\ClueLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1978CC0B-51D2-47E3-A4EB-FEEE4F93080D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D56634-7F2C-40A5-91A9-742102879965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
@@ -33,6 +33,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="17">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MM*</t>
+  </si>
+  <si>
+    <t>MM#</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>S*</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -44,15 +100,75 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +176,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,209 +528,1950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05E246-5D09-481E-9555-936130D5A0D3}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="2">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="2">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="2">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="2">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="2">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="2">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="2">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="2">
         <v>23</v>
       </c>
+      <c r="Y1" s="2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
+      <c r="B18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
+      <c r="B23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
+      <c r="B24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\iCloudDrive\CSCI 306\Clue Project\ClueLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D56634-7F2C-40A5-91A9-742102879965}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B01F2A-8DB5-469E-8048-EBD6BEBB5A5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="37">
   <si>
     <t>X</t>
   </si>
@@ -85,6 +85,66 @@
   </si>
   <si>
     <t>A*</t>
+  </si>
+  <si>
+    <t>E#</t>
+  </si>
+  <si>
+    <t>E*</t>
+  </si>
+  <si>
+    <t>MA#</t>
+  </si>
+  <si>
+    <t>MA*</t>
+  </si>
+  <si>
+    <t>CK#</t>
+  </si>
+  <si>
+    <t>CK*</t>
+  </si>
+  <si>
+    <t>B#</t>
+  </si>
+  <si>
+    <t>B*</t>
+  </si>
+  <si>
+    <t>CT#</t>
+  </si>
+  <si>
+    <t>CT*</t>
+  </si>
+  <si>
+    <t>R#</t>
+  </si>
+  <si>
+    <t>R*</t>
+  </si>
+  <si>
+    <t>W&lt;</t>
+  </si>
+  <si>
+    <t>Wv</t>
+  </si>
+  <si>
+    <t>W&gt;</t>
+  </si>
+  <si>
+    <t>W^</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CKA</t>
+  </si>
+  <si>
+    <t>ACK</t>
   </si>
 </sst>
 </file>
@@ -100,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,36 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,13 +187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF01FF74"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -209,17 +239,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF01FF74"/>
+      <color rgb="FFA90000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -530,21 +598,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05E246-5D09-481E-9555-936130D5A0D3}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -627,20 +705,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -680,20 +758,20 @@
       <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>5</v>
+      <c r="T2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>0</v>
@@ -703,21 +781,21 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,19 +835,19 @@
       <c r="S3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="T3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y3" s="4" t="s">
@@ -780,23 +858,23 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -813,7 +891,7 @@
       <c r="L4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="6" t="s">
@@ -834,19 +912,19 @@
       <c r="S4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="8" t="s">
+      <c r="T4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y4" s="4" t="s">
@@ -857,19 +935,19 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -890,7 +968,7 @@
       <c r="L5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -911,19 +989,19 @@
       <c r="S5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="8" t="s">
+      <c r="T5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y5" s="4" t="s">
@@ -937,16 +1015,16 @@
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -988,19 +1066,19 @@
       <c r="S6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="8" t="s">
+      <c r="T6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y6" s="4" t="s">
@@ -1062,22 +1140,22 @@
       <c r="R7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="8" t="s">
+      <c r="S7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y7" s="4" t="s">
@@ -1097,8 +1175,8 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -1121,11 +1199,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -1142,8 +1220,8 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -1165,25 +1243,25 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1242,25 +1320,25 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1296,19 +1374,19 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="9" t="s">
+      <c r="T10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y10" s="4" t="s">
@@ -1319,25 +1397,25 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -1373,19 +1451,19 @@
       <c r="S11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" s="9" t="s">
+      <c r="T11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y11" s="4" t="s">
@@ -1396,25 +1474,25 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -1450,19 +1528,19 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="9" t="s">
+      <c r="T12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y12" s="4" t="s">
@@ -1473,25 +1551,25 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1527,19 +1605,19 @@
       <c r="S13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="9" t="s">
+      <c r="T13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y13" s="4" t="s">
@@ -1550,25 +1628,25 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1604,19 +1682,19 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X14" s="9" t="s">
+      <c r="T14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y14" s="4" t="s">
@@ -1627,8 +1705,8 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>3</v>
@@ -1636,8 +1714,8 @@
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -1681,19 +1759,19 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="9" t="s">
+      <c r="T15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y15" s="4" t="s">
@@ -1704,25 +1782,25 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -1758,19 +1836,19 @@
       <c r="S16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X16" s="9" t="s">
+      <c r="T16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y16" s="4" t="s">
@@ -1781,29 +1859,29 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1814,8 +1892,8 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1835,19 +1913,19 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="9" t="s">
+      <c r="T17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y17" s="4" t="s">
@@ -1858,25 +1936,25 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1885,22 +1963,22 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="K18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
@@ -1912,19 +1990,19 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X18" s="9" t="s">
+      <c r="T18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y18" s="4" t="s">
@@ -1935,25 +2013,25 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="B19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1962,22 +2040,22 @@
       <c r="J19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="K19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="3" t="s">
@@ -1989,19 +2067,19 @@
       <c r="S19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" s="9" t="s">
+      <c r="T19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y19" s="4" t="s">
@@ -2039,22 +2117,22 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="K20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
@@ -2116,22 +2194,22 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="7" t="s">
+      <c r="K21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="7" t="s">
+      <c r="N21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
@@ -2146,8 +2224,8 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
+      <c r="U21" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
@@ -2169,20 +2247,20 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -2193,22 +2271,22 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="K22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="N22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q22" s="3" t="s">
@@ -2223,16 +2301,16 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V22" s="10" t="s">
+      <c r="V22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X22" s="10" t="s">
+      <c r="X22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y22" s="4" t="s">
@@ -2243,22 +2321,22 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -2270,22 +2348,22 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="7" t="s">
+      <c r="K23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q23" s="3" t="s">
@@ -2300,19 +2378,19 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="10" t="s">
+      <c r="V23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W23" s="10" t="s">
+      <c r="W23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="10" t="s">
+      <c r="Y23" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2320,22 +2398,22 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2347,22 +2425,22 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="K24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q24" s="4" t="s">
@@ -2377,19 +2455,19 @@
       <c r="T24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U24" s="10" t="s">
+      <c r="U24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="10" t="s">
+      <c r="V24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W24" s="10" t="s">
+      <c r="W24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="10" t="s">
+      <c r="Y24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2397,21 +2475,21 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="F25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G25" s="4" t="s">
         <v>0</v>
       </c>
@@ -2424,22 +2502,22 @@
       <c r="J25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="K25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -2454,23 +2532,28 @@
       <c r="T25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="V25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="W25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" s="10" t="s">
-        <v>7</v>
+      <c r="Y25" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\iCloudDrive\CSCI 306\Clue Project\ClueLayout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B01F2A-8DB5-469E-8048-EBD6BEBB5A5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C38B00-89CA-46ED-8263-11E2D7774CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
@@ -42,39 +42,21 @@
     <t>B</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>MM*</t>
-  </si>
-  <si>
-    <t>MM#</t>
-  </si>
-  <si>
     <t>S#</t>
   </si>
   <si>
@@ -93,30 +75,12 @@
     <t>E*</t>
   </si>
   <si>
-    <t>MA#</t>
-  </si>
-  <si>
-    <t>MA*</t>
-  </si>
-  <si>
-    <t>CK#</t>
-  </si>
-  <si>
-    <t>CK*</t>
-  </si>
-  <si>
     <t>B#</t>
   </si>
   <si>
     <t>B*</t>
   </si>
   <si>
-    <t>CT#</t>
-  </si>
-  <si>
-    <t>CT*</t>
-  </si>
-  <si>
     <t>R#</t>
   </si>
   <si>
@@ -141,10 +105,46 @@
     <t>BE</t>
   </si>
   <si>
-    <t>CKA</t>
-  </si>
-  <si>
-    <t>ACK</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M#</t>
+  </si>
+  <si>
+    <t>M*</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T#</t>
+  </si>
+  <si>
+    <t>T*</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P#</t>
+  </si>
+  <si>
+    <t>P*</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C*</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -243,35 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -596,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05E246-5D09-481E-9555-936130D5A0D3}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,87 +597,87 @@
     <col min="25" max="25" width="2.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>2</v>
-      </c>
       <c r="D1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
-        <v>5</v>
-      </c>
       <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
-        <v>23</v>
-      </c>
       <c r="Y1" s="2">
-        <v>24</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -720,66 +692,66 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -788,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -797,66 +769,66 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -865,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
@@ -874,66 +846,66 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -951,66 +923,66 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>0</v>
@@ -1028,786 +1000,786 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="4" t="s">
+      <c r="W15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>0</v>
@@ -1828,28 +1800,28 @@
         <v>0</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>0</v>
@@ -1857,76 +1829,76 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>0</v>
@@ -1934,76 +1906,76 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>0</v>
@@ -2011,76 +1983,76 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>0</v>
@@ -2088,73 +2060,73 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X20" s="4" t="s">
         <v>0</v>
@@ -2165,153 +2137,153 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="V22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="W22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="X22" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X22" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>0</v>
@@ -2319,176 +2291,176 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="V23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="W23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="Y23" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="X23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="V24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="W24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="Y24" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>0</v>
@@ -2497,60 +2469,63 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="V25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="W25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="X25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X25" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="Y25" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="C1:Z1 B2:Y25 A2:A26">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\iCloudDrive\CSCI 306\Clue Project\ClueLayout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\Desktop\CSCI306\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C38B00-89CA-46ED-8263-11E2D7774CEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8D236-B160-47D0-8875-024D76AE5A90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="41">
   <si>
     <t>X</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>Tests:</t>
+  </si>
+  <si>
+    <t>DoorDirection(White)</t>
+  </si>
+  <si>
+    <t>Room/Doorway Adj</t>
+  </si>
+  <si>
+    <t>WalkwayAdj</t>
   </si>
 </sst>
 </file>
@@ -160,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,7 +205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -239,6 +269,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,8 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05E246-5D09-481E-9555-936130D5A0D3}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -595,6 +631,7 @@
     <col min="23" max="23" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -691,13 +728,13 @@
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -724,10 +761,10 @@
       <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -747,6 +784,9 @@
       </c>
       <c r="Y2" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
@@ -768,13 +808,13 @@
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -801,10 +841,10 @@
       <c r="Q3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -824,6 +864,9 @@
       </c>
       <c r="Y3" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
@@ -836,7 +879,7 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -848,10 +891,10 @@
       <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -878,10 +921,10 @@
       <c r="Q4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="6" t="s">
@@ -901,6 +944,9 @@
       </c>
       <c r="Y4" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
@@ -922,13 +968,13 @@
       <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -940,7 +986,7 @@
       <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -955,10 +1001,10 @@
       <c r="Q5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -967,7 +1013,7 @@
       <c r="U5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="W5" s="6" t="s">
@@ -978,6 +1024,9 @@
       </c>
       <c r="Y5" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -999,13 +1048,13 @@
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1032,10 +1081,10 @@
       <c r="Q6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T6" s="6" t="s">
@@ -1056,36 +1105,37 @@
       <c r="Y6" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1106,10 +1156,10 @@
       <c r="P7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="8" t="s">
@@ -1133,6 +1183,7 @@
       <c r="Y7" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1141,34 +1192,34 @@
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="F8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -1177,39 +1228,40 @@
       <c r="N8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="8" t="s">
+      <c r="O8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="3" t="s">
+      <c r="U8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1236,57 +1288,58 @@
       <c r="H9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="I9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1313,37 +1366,37 @@
       <c r="H10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="I10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T10" s="8" t="s">
@@ -1390,10 +1443,10 @@
       <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1414,13 +1467,13 @@
       <c r="P11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="Q11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6" t="s">
@@ -1467,10 +1520,10 @@
       <c r="H12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1491,13 +1544,13 @@
       <c r="P12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3" t="s">
+      <c r="Q12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T12" s="6" t="s">
@@ -1544,10 +1597,10 @@
       <c r="H13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1568,13 +1621,13 @@
       <c r="P13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3" t="s">
+      <c r="Q13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T13" s="6" t="s">
@@ -1621,10 +1674,10 @@
       <c r="H14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1645,13 +1698,13 @@
       <c r="P14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="Q14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T14" s="6" t="s">
@@ -1680,28 +1733,28 @@
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="F15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1722,13 +1775,13 @@
       <c r="P15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" s="3" t="s">
+      <c r="Q15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T15" s="6" t="s">
@@ -1775,10 +1828,10 @@
       <c r="H16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -1799,13 +1852,13 @@
       <c r="P16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="3" t="s">
+      <c r="Q16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T16" s="6" t="s">
@@ -1855,34 +1908,34 @@
       <c r="I17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="J17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="3" t="s">
+      <c r="N17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T17" s="6" t="s">
@@ -1929,10 +1982,10 @@
       <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -1953,13 +2006,13 @@
       <c r="P18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="3" t="s">
+      <c r="Q18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="6" t="s">
@@ -2006,10 +2059,10 @@
       <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -2030,13 +2083,13 @@
       <c r="P19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="3" t="s">
+      <c r="Q19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="T19" s="8" t="s">
@@ -2065,28 +2118,28 @@
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="C20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2107,25 +2160,25 @@
       <c r="P20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" s="3" t="s">
+      <c r="Q20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="13" t="s">
         <v>2</v>
       </c>
       <c r="X20" s="4" t="s">
@@ -2139,31 +2192,31 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="B21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2184,31 +2237,31 @@
       <c r="P21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="3" t="s">
+      <c r="Q21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="13" t="s">
         <v>2</v>
       </c>
       <c r="U21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="3" t="s">
+      <c r="V21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2234,13 +2287,13 @@
       <c r="G22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="H22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -2261,16 +2314,16 @@
       <c r="P22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="3" t="s">
+      <c r="Q22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="13" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
@@ -2311,13 +2364,13 @@
       <c r="G23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="H23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -2338,16 +2391,16 @@
       <c r="P23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T23" s="3" t="s">
+      <c r="Q23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="13" t="s">
         <v>2</v>
       </c>
       <c r="U23" s="6" t="s">
@@ -2388,13 +2441,13 @@
       <c r="G24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="H24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -2418,7 +2471,7 @@
       <c r="Q24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -2468,7 +2521,7 @@
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2495,7 +2548,7 @@
       <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -2524,11 +2577,6 @@
       <c r="A26" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:Z1 B2:Y25 A2:A26">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"W"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\Desktop\CSCI306\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8D236-B160-47D0-8875-024D76AE5A90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3833BE6-3731-465F-95D7-52D6FB28E491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="44">
   <si>
     <t>X</t>
   </si>
@@ -153,10 +153,19 @@
     <t>DoorDirection(White)</t>
   </si>
   <si>
-    <t>Room/Doorway Adj</t>
-  </si>
-  <si>
-    <t>WalkwayAdj</t>
+    <t>WalkwayAdj (Orange)</t>
+  </si>
+  <si>
+    <t>Room/Doorway Adj (Light Orange)</t>
+  </si>
+  <si>
+    <t>Test Target (Teal)</t>
+  </si>
+  <si>
+    <t>No Valid Move Cells (Navy)</t>
+  </si>
+  <si>
+    <t>Occupied Test Cells (Marroon)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +236,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -255,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -269,24 +296,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -607,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z17" sqref="Z17"/>
+      <selection pane="bottomLeft" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +651,7 @@
     <col min="23" max="23" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -728,13 +748,13 @@
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -761,10 +781,10 @@
       <c r="Q2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="13" t="s">
+      <c r="R2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -808,13 +828,13 @@
       <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -841,10 +861,10 @@
       <c r="Q3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="6" t="s">
@@ -879,7 +899,7 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -891,10 +911,10 @@
       <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -921,7 +941,7 @@
       <c r="Q4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="13" t="s">
@@ -945,8 +965,8 @@
       <c r="Y4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>39</v>
+      <c r="Z4" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
@@ -968,13 +988,13 @@
       <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -986,7 +1006,7 @@
       <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1001,10 +1021,10 @@
       <c r="Q5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -1013,7 +1033,7 @@
       <c r="U5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="W5" s="6" t="s">
@@ -1025,8 +1045,8 @@
       <c r="Y5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>40</v>
+      <c r="Z5" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
@@ -1048,13 +1068,13 @@
       <c r="F6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1084,7 +1104,7 @@
       <c r="R6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T6" s="6" t="s">
@@ -1105,37 +1125,39 @@
       <c r="Y6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="9"/>
+      <c r="Z6" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -1156,10 +1178,10 @@
       <c r="P7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="8" t="s">
@@ -1183,7 +1205,9 @@
       <c r="Y7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="9"/>
+      <c r="Z7" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1192,34 +1216,34 @@
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="M8" s="8" t="s">
@@ -1228,40 +1252,42 @@
       <c r="N8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" s="10" t="s">
+      <c r="O8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="X8" s="13" t="s">
+      <c r="U8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1288,58 +1314,58 @@
       <c r="H9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="9"/>
+      <c r="I9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1366,37 +1392,37 @@
       <c r="H10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" s="13" t="s">
+      <c r="I10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T10" s="8" t="s">
@@ -1417,6 +1443,7 @@
       <c r="Y10" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -1443,10 +1470,10 @@
       <c r="H11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -1467,13 +1494,13 @@
       <c r="P11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="13" t="s">
+      <c r="Q11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T11" s="6" t="s">
@@ -1520,10 +1547,10 @@
       <c r="H12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="I12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1544,13 +1571,13 @@
       <c r="P12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="13" t="s">
+      <c r="Q12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T12" s="6" t="s">
@@ -1597,10 +1624,10 @@
       <c r="H13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1621,13 +1648,13 @@
       <c r="P13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="13" t="s">
+      <c r="Q13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T13" s="6" t="s">
@@ -1674,10 +1701,10 @@
       <c r="H14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -1698,13 +1725,13 @@
       <c r="P14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T14" s="6" t="s">
@@ -1733,28 +1760,28 @@
       <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="F15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -1775,13 +1802,13 @@
       <c r="P15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" s="13" t="s">
+      <c r="Q15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T15" s="6" t="s">
@@ -1790,7 +1817,7 @@
       <c r="U15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="V15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="W15" s="6" t="s">
@@ -1828,10 +1855,10 @@
       <c r="H16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="I16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -1852,13 +1879,13 @@
       <c r="P16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T16" s="6" t="s">
@@ -1908,34 +1935,34 @@
       <c r="I17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="J17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="13" t="s">
+      <c r="N17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T17" s="6" t="s">
@@ -1982,10 +2009,10 @@
       <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J18" s="13" t="s">
+      <c r="I18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K18" s="6" t="s">
@@ -2006,13 +2033,13 @@
       <c r="P18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S18" s="13" t="s">
+      <c r="Q18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="6" t="s">
@@ -2059,10 +2086,10 @@
       <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K19" s="6" t="s">
@@ -2083,13 +2110,13 @@
       <c r="P19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="13" t="s">
+      <c r="Q19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="T19" s="8" t="s">
@@ -2118,28 +2145,28 @@
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="13" t="s">
+      <c r="C20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K20" s="6" t="s">
@@ -2160,25 +2187,25 @@
       <c r="P20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" s="13" t="s">
+      <c r="Q20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X20" s="4" t="s">
@@ -2192,31 +2219,31 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2237,31 +2264,31 @@
       <c r="P21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="U21" s="8" t="s">
+      <c r="Q21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="V21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="13" t="s">
+      <c r="V21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2287,13 +2314,13 @@
       <c r="G22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="13" t="s">
+      <c r="H22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K22" s="6" t="s">
@@ -2314,16 +2341,16 @@
       <c r="P22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T22" s="13" t="s">
+      <c r="Q22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
@@ -2364,13 +2391,13 @@
       <c r="G23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J23" s="13" t="s">
+      <c r="H23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K23" s="6" t="s">
@@ -2391,16 +2418,16 @@
       <c r="P23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="U23" s="6" t="s">
@@ -2429,7 +2456,7 @@
       <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2441,13 +2468,13 @@
       <c r="G24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="13" t="s">
+      <c r="H24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>2</v>
       </c>
       <c r="K24" s="6" t="s">
@@ -2471,7 +2498,7 @@
       <c r="Q24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="11" t="s">
         <v>2</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -2521,7 +2548,7 @@
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="11" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2548,7 +2575,7 @@
       <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="12" t="s">
         <v>2</v>
       </c>
       <c r="S25" s="4" t="s">

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\Desktop\CSCI306\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3833BE6-3731-465F-95D7-52D6FB28E491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209BD3A-1BDF-43E2-8316-D6EA5E2A7711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7460" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -302,6 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +633,8 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z16" sqref="Z16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" activeCellId="3" sqref="J8 I9 J10 K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,7 +1244,7 @@
       <c r="I8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="11" t="s">
@@ -1246,7 +1253,7 @@
       <c r="L8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -1314,13 +1321,13 @@
       <c r="H9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L9" s="11" t="s">
@@ -1395,7 +1402,7 @@
       <c r="I10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="11" t="s">

--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brend\Desktop\CSCI306\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3833BE6-3731-465F-95D7-52D6FB28E491}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C14C8C-7ABA-4850-9621-7DDFDC44108C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7460" xr2:uid="{37011A41-F0B9-42C1-8F12-4D199BB985D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,9 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C05E246-5D09-481E-9555-936130D5A0D3}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,7 +751,7 @@
       <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -763,7 +763,7 @@
       <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1362,7 +1362,7 @@
       <c r="X9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="Z9" s="8"/>
@@ -2243,7 +2243,7 @@
       <c r="I21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
@@ -2548,7 +2548,7 @@
       <c r="H25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
